--- a/mathTransformed/HMPSTT_(2018-11-11)_48_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-11-11)_48_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Shree Shankaraling High School Hombal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>J T H S DambalMundaragi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Sanjay High School HolealurRon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>K H P G G H S Hulkoti</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>S M H S Balaganur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S H S Comp P U CollegePetha – AlurMundaragi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S Shagoti</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S (R M S A) Nagavi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S Ron</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>M G M High School NyayadaguntePavagada</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S B S BeleriRon</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>S R A G A H S Hulkoti</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -802,7 +867,8 @@
           <t>HANAMANTRAO G DESAI</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>V D S T C Boys High School Gadag</t>
         </is>
@@ -831,6 +897,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>P R H S PalavalliPavagada</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -858,6 +929,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>N V A G H S MagadiShirahatti</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -885,6 +961,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S (RMSA) HarogeriMundaragi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -912,6 +993,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>M S Dambal Girls High School Mundargi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -939,6 +1025,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S Shirahatti</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -966,6 +1057,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>S R R High School K T HallyPavagada</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -993,6 +1089,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. High School Harlapur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1020,6 +1121,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S HirekoppaNaragund</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1047,6 +1153,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>V F Patil High School Ron</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1074,6 +1185,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S Siddaling Nagar</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1101,6 +1217,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S V V P Girls High School Pavagada</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1128,6 +1249,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Nethra Vidya Peeta High School GujjanaduPavagada</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1153,7 +1279,8 @@
           <t>MANVI C S</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Basaveshwar High School Gadag</t>
         </is>
@@ -1182,6 +1309,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>H C E S High School Chincholi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1209,6 +1341,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S HadaliNaragund</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1236,6 +1373,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S KoganurShirahatti</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1263,6 +1405,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S Janili – ShirurMundaragi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1290,6 +1437,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Akarashni High School NeelammanahallyPavagada</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1317,6 +1469,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>S K B H S MadalageriRon</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1344,6 +1501,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Sri K V Shantagirimath High SchoolRon</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1371,6 +1533,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>M H S ShanthgiriRon</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1398,6 +1565,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S BaradurMundaragi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1425,6 +1597,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S MenasagiRon</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1452,6 +1629,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>J A H S Mundargi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1479,6 +1661,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Smt. PSBD G H S LakshmishwarShirahatti</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1504,7 +1691,8 @@
           <t>SANGAL A S</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>J P High School Gadag</t>
         </is>
@@ -1533,6 +1721,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S RamagiriShirahatti</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1560,6 +1753,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G G H S Lakkundi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1587,6 +1785,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>S J F H S BellattiShirahatti</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1614,6 +1817,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S ChikkamagundNaragund</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1641,6 +1849,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>S S High School LakshmeshwarShirahatti</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1668,6 +1881,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>S A D S G H S JakkaliRon</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1693,7 +1911,8 @@
           <t>VADIRAJ K PURANIK</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>V D S Girls School Gadag</t>
         </is>
@@ -1722,6 +1941,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>S T R High SchoolRangasamudraPavagada</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1748,6 +1972,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>G H S KurahattiRon</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Gadag</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-11-11)_48_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-11-11)_48_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +778,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,6 @@
           <t>HANAMANTRAO G DESAI</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>V D S T C Boys High School Gadag</t>
@@ -902,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1061,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1221,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1253,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1278,6 @@
           <t>MANVI C S</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>Basaveshwar High School Gadag</t>
@@ -1442,7 +1440,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1689,6 @@
           <t>SANGAL A S</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>J P High School Gadag</t>
@@ -1911,7 +1908,6 @@
           <t>VADIRAJ K PURANIK</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>V D S Girls School Gadag</t>
@@ -1946,7 +1942,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2018-11-11)_48_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-11-11)_48_4.xlsx
@@ -869,7 +869,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>V D S T C Boys High School Gadag</t>
+          <t>Gadag</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Basaveshwar High School Gadag</t>
+          <t>Gadag</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>J P High School Gadag</t>
+          <t>Gadag</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>V D S Girls School Gadag</t>
+          <t>Gadag</t>
         </is>
       </c>
     </row>
